--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2569884.234930946</v>
+        <v>-2572483.029901607</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>169.6561546294894</v>
+        <v>410.9811492522526</v>
       </c>
       <c r="H2" t="n">
-        <v>295.2163363185219</v>
+        <v>148.312117543221</v>
       </c>
       <c r="I2" t="n">
-        <v>43.86785806562895</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>110.5418770458108</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.1780969433633</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>95.23181436353387</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -753,10 +753,10 @@
         <v>135.0312635940655</v>
       </c>
       <c r="H3" t="n">
-        <v>89.90394266080568</v>
+        <v>37.69069145970035</v>
       </c>
       <c r="I3" t="n">
-        <v>19.91189527285529</v>
+        <v>19.9118952728553</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.116953416516708</v>
+        <v>2.116953416516736</v>
       </c>
       <c r="S3" t="n">
         <v>128.73407520327</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0524636397191</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9920054808265</v>
+        <v>144.9920054808266</v>
       </c>
       <c r="I4" t="n">
-        <v>97.15402040370427</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>90.13067551456429</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>67.22251607974499</v>
       </c>
       <c r="U4" t="n">
-        <v>176.1816132851672</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>119.5071633603265</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>231.4760253798849</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>80.74432540575792</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,16 +1108,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>177.9700556491552</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>108.9520512661123</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>181.2290365055931</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.15794421524323</v>
+        <v>45.80704487268817</v>
       </c>
     </row>
     <row r="11">
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>123.7971820797027</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.405450327288</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179517</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016452</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892437</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>143.6328115793019</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>30.87238256912001</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012207</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892437</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.60082661159515</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922689</v>
+        <v>21.35866177150567</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016447</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892437</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>161.3555494301519</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,7 +2728,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
         <v>56.98118882652575</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096047</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972046</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445526</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541843</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808158</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2102.944501998829</v>
+        <v>1785.045538373401</v>
       </c>
       <c r="C2" t="n">
-        <v>1733.981985058417</v>
+        <v>1785.045538373401</v>
       </c>
       <c r="D2" t="n">
-        <v>1375.716286451667</v>
+        <v>1426.77983976665</v>
       </c>
       <c r="E2" t="n">
-        <v>989.9280338534227</v>
+        <v>1040.991587168406</v>
       </c>
       <c r="F2" t="n">
-        <v>578.9421290638152</v>
+        <v>630.0056823787986</v>
       </c>
       <c r="G2" t="n">
-        <v>407.5722759027149</v>
+        <v>214.8732083866242</v>
       </c>
       <c r="H2" t="n">
-        <v>109.3739563890564</v>
+        <v>65.06298864599685</v>
       </c>
       <c r="I2" t="n">
         <v>65.06298864599685</v>
       </c>
       <c r="J2" t="n">
-        <v>248.9490509731314</v>
+        <v>248.9490509731313</v>
       </c>
       <c r="K2" t="n">
-        <v>575.2851091032919</v>
+        <v>575.2851091032926</v>
       </c>
       <c r="L2" t="n">
-        <v>1017.035607679883</v>
+        <v>1017.035607679884</v>
       </c>
       <c r="M2" t="n">
-        <v>1540.237590999098</v>
+        <v>1540.237590999099</v>
       </c>
       <c r="N2" t="n">
-        <v>2076.519337778084</v>
+        <v>2076.519337778085</v>
       </c>
       <c r="O2" t="n">
-        <v>2569.579722854078</v>
+        <v>2569.579722854079</v>
       </c>
       <c r="P2" t="n">
         <v>2955.894353302313</v>
       </c>
       <c r="Q2" t="n">
-        <v>3197.827805704724</v>
+        <v>3197.827805704725</v>
       </c>
       <c r="R2" t="n">
         <v>3253.149432299842</v>
       </c>
       <c r="S2" t="n">
-        <v>3253.149432299842</v>
+        <v>3141.490970637407</v>
       </c>
       <c r="T2" t="n">
-        <v>3253.149432299842</v>
+        <v>2935.250468674414</v>
       </c>
       <c r="U2" t="n">
-        <v>3253.149432299842</v>
+        <v>2935.250468674414</v>
       </c>
       <c r="V2" t="n">
-        <v>3253.149432299842</v>
+        <v>2935.250468674414</v>
       </c>
       <c r="W2" t="n">
-        <v>3253.149432299842</v>
+        <v>2935.250468674414</v>
       </c>
       <c r="X2" t="n">
-        <v>2879.683674038763</v>
+        <v>2561.784710413334</v>
       </c>
       <c r="Y2" t="n">
-        <v>2489.544342062951</v>
+        <v>2171.645378437523</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>888.802087361513</v>
+        <v>1626.917666771054</v>
       </c>
       <c r="C3" t="n">
-        <v>714.349058080386</v>
+        <v>1452.464637489928</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1553061980285</v>
+        <v>1303.530227828676</v>
       </c>
       <c r="E3" t="n">
-        <v>458.917851192573</v>
+        <v>1144.292772823221</v>
       </c>
       <c r="F3" t="n">
-        <v>312.383293219458</v>
+        <v>997.7582148501053</v>
       </c>
       <c r="G3" t="n">
-        <v>175.9880774678766</v>
+        <v>861.3629990985241</v>
       </c>
       <c r="H3" t="n">
-        <v>85.17601417413351</v>
+        <v>823.2915935836754</v>
       </c>
       <c r="I3" t="n">
-        <v>65.06298864599685</v>
+        <v>803.1785680555386</v>
       </c>
       <c r="J3" t="n">
-        <v>155.7664206654044</v>
+        <v>893.8820000749458</v>
       </c>
       <c r="K3" t="n">
-        <v>388.9478577415908</v>
+        <v>1127.063437151132</v>
       </c>
       <c r="L3" t="n">
-        <v>748.8116174223339</v>
+        <v>1486.927196831875</v>
       </c>
       <c r="M3" t="n">
-        <v>1188.112519465049</v>
+        <v>1926.22809887459</v>
       </c>
       <c r="N3" t="n">
-        <v>1653.449054119951</v>
+        <v>2391.564633529491</v>
       </c>
       <c r="O3" t="n">
-        <v>2056.921277259248</v>
+        <v>2795.036856668789</v>
       </c>
       <c r="P3" t="n">
-        <v>2361.410240824784</v>
+        <v>3099.525820234325</v>
       </c>
       <c r="Q3" t="n">
-        <v>2515.033852890301</v>
+        <v>3253.149432299842</v>
       </c>
       <c r="R3" t="n">
-        <v>2512.895516105941</v>
+        <v>3251.011095515482</v>
       </c>
       <c r="S3" t="n">
-        <v>2382.861096708698</v>
+        <v>3120.97667611824</v>
       </c>
       <c r="T3" t="n">
-        <v>2190.088648044978</v>
+        <v>2928.204227454519</v>
       </c>
       <c r="U3" t="n">
-        <v>1962.018688312012</v>
+        <v>2700.134267721553</v>
       </c>
       <c r="V3" t="n">
-        <v>1726.866580080269</v>
+        <v>2464.982159489811</v>
       </c>
       <c r="W3" t="n">
-        <v>1472.629223352068</v>
+        <v>2210.744802761609</v>
       </c>
       <c r="X3" t="n">
-        <v>1264.777723146535</v>
+        <v>2002.893302556076</v>
       </c>
       <c r="Y3" t="n">
-        <v>1057.017424381581</v>
+        <v>1795.133003791123</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.2746427340586</v>
+        <v>825.3754232592971</v>
       </c>
       <c r="C4" t="n">
-        <v>624.2746427340586</v>
+        <v>656.4392403313902</v>
       </c>
       <c r="D4" t="n">
-        <v>624.2746427340586</v>
+        <v>506.3226009190545</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2746427340586</v>
+        <v>358.4095073366614</v>
       </c>
       <c r="F4" t="n">
-        <v>477.3846952361482</v>
+        <v>211.519559838751</v>
       </c>
       <c r="G4" t="n">
-        <v>309.6549339839067</v>
+        <v>211.519559838751</v>
       </c>
       <c r="H4" t="n">
-        <v>163.1983627911527</v>
+        <v>65.06298864599685</v>
       </c>
       <c r="I4" t="n">
         <v>65.06298864599685</v>
       </c>
       <c r="J4" t="n">
-        <v>75.02005212274264</v>
+        <v>75.02005212274273</v>
       </c>
       <c r="K4" t="n">
-        <v>170.2650045033534</v>
+        <v>170.2650045033533</v>
       </c>
       <c r="L4" t="n">
-        <v>322.0515495633495</v>
+        <v>322.0515495633493</v>
       </c>
       <c r="M4" t="n">
-        <v>485.3474622992788</v>
+        <v>485.3474622992787</v>
       </c>
       <c r="N4" t="n">
-        <v>652.618089120607</v>
+        <v>652.6180891206068</v>
       </c>
       <c r="O4" t="n">
-        <v>786.8064976079671</v>
+        <v>786.8064976079668</v>
       </c>
       <c r="P4" t="n">
-        <v>882.565891698328</v>
+        <v>882.5658916983278</v>
       </c>
       <c r="Q4" t="n">
-        <v>893.2769546529793</v>
+        <v>893.2769546529789</v>
       </c>
       <c r="R4" t="n">
-        <v>802.2358682746316</v>
+        <v>893.2769546529789</v>
       </c>
       <c r="S4" t="n">
-        <v>802.2358682746316</v>
+        <v>893.2769546529789</v>
       </c>
       <c r="T4" t="n">
-        <v>802.2358682746316</v>
+        <v>825.3754232592971</v>
       </c>
       <c r="U4" t="n">
-        <v>624.2746427340586</v>
+        <v>825.3754232592971</v>
       </c>
       <c r="V4" t="n">
-        <v>624.2746427340586</v>
+        <v>825.3754232592971</v>
       </c>
       <c r="W4" t="n">
-        <v>624.2746427340586</v>
+        <v>825.3754232592971</v>
       </c>
       <c r="X4" t="n">
-        <v>624.2746427340586</v>
+        <v>825.3754232592971</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.2746427340586</v>
+        <v>825.3754232592971</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694473</v>
+        <v>2012.898941548398</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.606831754061</v>
+        <v>1643.936424607987</v>
       </c>
       <c r="D5" t="n">
-        <v>764.3411331473105</v>
+        <v>1285.670726001236</v>
       </c>
       <c r="E5" t="n">
-        <v>764.3411331473105</v>
+        <v>899.882473402992</v>
       </c>
       <c r="F5" t="n">
-        <v>353.355228357703</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3231822431035</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758594</v>
+        <v>2012.898941548398</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158134</v>
@@ -4665,7 +4665,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4674,16 +4674,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>732.1533772316425</v>
+        <v>479.6639240396553</v>
       </c>
       <c r="C7" t="n">
-        <v>563.2171943037356</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D7" t="n">
-        <v>413.1005548913998</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E7" t="n">
-        <v>413.1005548913998</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>413.1005548913998</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>245.3977182661188</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4726,16 +4726,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.594421205412</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="X7" t="n">
-        <v>1134.594421205412</v>
+        <v>700.4565031831854</v>
       </c>
       <c r="Y7" t="n">
-        <v>913.8018420618822</v>
+        <v>479.6639240396553</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796256</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>552.807938939214</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>194.5422403324635</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>84.48966329598635</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3032.255520302333</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3032.255520302333</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2701.192632958762</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2701.192632958762</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2327.726874697682</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>2327.726874697682</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.8377936138381</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>929.0990761059845</v>
       </c>
       <c r="Y10" t="n">
-        <v>345.4862584440777</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="11">
@@ -5042,22 +5042,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232835</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5203,7 +5203,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5276,28 +5276,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5364,7 +5364,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951538</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5604,7 +5604,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>924.6979859831845</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>1106.346450813424</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5838,10 +5838,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>988.1395539230167</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>819.2033709951098</v>
       </c>
       <c r="D22" t="n">
-        <v>408.9258559154851</v>
+        <v>669.0867315827741</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>521.1736380003809</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>374.2836905024706</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>207.0875912173512</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038341</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831764</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1907.987318831764</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138413</v>
+        <v>1390.580597896786</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859674</v>
+        <v>1169.788018753256</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188011</v>
+        <v>802.9288273958744</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908941</v>
+        <v>633.9926444679675</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908941</v>
+        <v>633.9926444679675</v>
       </c>
       <c r="E25" t="n">
-        <v>402.724593490894</v>
+        <v>486.0795508855743</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>339.189603387664</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057739</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797739</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267662</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138409</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490408</v>
+        <v>984.5772922261141</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.3734194384019</v>
@@ -6382,28 +6382,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
@@ -6418,16 +6418,16 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6549,10 +6549,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190825</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,16 +6616,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380723</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6658,10 +6658,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
         <v>1896.176478190825</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656818</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O36" t="n">
         <v>1896.176478190825</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
         <v>1896.176478190825</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7400,61 +7400,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,37 +7582,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,10 +7837,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.3249946227632</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>146.9042187753009</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>43.86785806562898</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.5418770458107</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1780969433633</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.9999258468059</v>
@@ -22629,7 +22629,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>52.21325120110488</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.21325120110533</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0524636397191</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>97.15402040370428</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>90.1306755145643</v>
       </c>
       <c r="S4" t="n">
-        <v>190.2335559203903</v>
+        <v>190.2335559203904</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6628404482119</v>
+        <v>152.4403243684669</v>
       </c>
       <c r="U4" t="n">
-        <v>110.0316788503015</v>
+        <v>286.2132921354687</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194194</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>23.61400951932589</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>109.4223302771039</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>211.9838267404996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>144.1654765207632</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856559</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.22910392194296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16230.45558071831</v>
+        <v>16230.4555807183</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
+        <v>20178.66499225015</v>
+      </c>
+      <c r="F2" t="n">
         <v>20178.66499225016</v>
-      </c>
-      <c r="F2" t="n">
-        <v>20178.66499225015</v>
       </c>
       <c r="G2" t="n">
         <v>20178.66499225015</v>
@@ -26335,10 +26335,10 @@
         <v>20178.66499225015</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="L2" t="n">
         <v>20526.04424660709</v>
@@ -26347,10 +26347,10 @@
         <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="O2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20526.04424660708</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26366,7 +26366,7 @@
         <v>1308430.533701948</v>
       </c>
       <c r="C3" t="n">
-        <v>19312.30676833858</v>
+        <v>19312.30676833899</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>232219.4755097969</v>
+        <v>232219.4755097968</v>
       </c>
       <c r="K3" t="n">
-        <v>4661.989000940801</v>
+        <v>4661.989000940824</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363186</v>
+        <v>19427.71799363169</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.485788617283106e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.0114859742004</v>
+        <v>572.0114859742001</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685508</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26439,25 +26439,25 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>22207.61133994854</v>
+        <v>22207.61133994851</v>
       </c>
       <c r="K4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994851</v>
       </c>
       <c r="L4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994855</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994852</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994855</v>
+        <v>22207.61133994852</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.61133994854</v>
+        <v>22207.61133994863</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994852</v>
       </c>
     </row>
     <row r="5">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1399282.453730708</v>
+        <v>-1399712.012597297</v>
       </c>
       <c r="C6" t="n">
-        <v>-200123.9899313311</v>
+        <v>-200123.9899313315</v>
       </c>
       <c r="D6" t="n">
         <v>-180811.6831629926</v>
       </c>
       <c r="E6" t="n">
-        <v>-420573.0787158672</v>
+        <v>-420607.8166413029</v>
       </c>
       <c r="F6" t="n">
-        <v>-95160.61690851205</v>
+        <v>-95195.3548339477</v>
       </c>
       <c r="G6" t="n">
-        <v>-95160.61690851205</v>
+        <v>-95195.35483394771</v>
       </c>
       <c r="H6" t="n">
-        <v>-95160.61690851202</v>
+        <v>-95195.35483394771</v>
       </c>
       <c r="I6" t="n">
-        <v>-95160.61690851196</v>
+        <v>-95195.35483394771</v>
       </c>
       <c r="J6" t="n">
-        <v>-337065.1584570537</v>
+        <v>-337065.1584570536</v>
       </c>
       <c r="K6" t="n">
         <v>-109507.6719481976</v>
@@ -26555,13 +26555,13 @@
         <v>-189900.7108827686</v>
       </c>
       <c r="N6" t="n">
+        <v>-104845.6829472568</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-124273.4009408886</v>
+      </c>
+      <c r="P6" t="n">
         <v>-104845.6829472569</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-124273.4009408887</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-104845.6829472568</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392018</v>
+        <v>1074.995080392017</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392018</v>
+        <v>1074.995080392017</v>
       </c>
       <c r="C3" t="n">
-        <v>14.7816202012807</v>
+        <v>14.78162020128116</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>287.3688823813849</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>63.13173900743553</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>64.01068950856286</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>47.73959973988195</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>272.9783188061494</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>22.68893363402699</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.4267091368516</v>
+        <v>172.7776084794066</v>
       </c>
     </row>
     <row r="11">
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.32158826288248</v>
+        <v>4.321588262882479</v>
       </c>
       <c r="H2" t="n">
-        <v>44.25846579724521</v>
+        <v>44.25846579724519</v>
       </c>
       <c r="I2" t="n">
-        <v>166.608031504777</v>
+        <v>166.6080315047769</v>
       </c>
       <c r="J2" t="n">
-        <v>366.7894018268222</v>
+        <v>366.7894018268221</v>
       </c>
       <c r="K2" t="n">
-        <v>549.7222329946377</v>
+        <v>549.7222329946376</v>
       </c>
       <c r="L2" t="n">
-        <v>681.9790397948275</v>
+        <v>681.9790397948274</v>
       </c>
       <c r="M2" t="n">
-        <v>758.8330850648638</v>
+        <v>758.8330850648636</v>
       </c>
       <c r="N2" t="n">
-        <v>771.1117977167786</v>
+        <v>771.1117977167785</v>
       </c>
       <c r="O2" t="n">
-        <v>728.1390044277409</v>
+        <v>728.1390044277408</v>
       </c>
       <c r="P2" t="n">
-        <v>621.4497941878296</v>
+        <v>621.4497941878295</v>
       </c>
       <c r="Q2" t="n">
-        <v>466.6829145233507</v>
+        <v>466.6829145233506</v>
       </c>
       <c r="R2" t="n">
-        <v>271.4659687182918</v>
+        <v>271.4659687182917</v>
       </c>
       <c r="S2" t="n">
-        <v>98.47819254043461</v>
+        <v>98.47819254043458</v>
       </c>
       <c r="T2" t="n">
         <v>18.91775262076806</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3457270610305983</v>
+        <v>0.3457270610305982</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.312253569145095</v>
+        <v>2.312253569145094</v>
       </c>
       <c r="H3" t="n">
         <v>22.33150157569078</v>
       </c>
       <c r="I3" t="n">
-        <v>79.61048472714471</v>
+        <v>79.61048472714469</v>
       </c>
       <c r="J3" t="n">
         <v>218.4572549690986</v>
       </c>
       <c r="K3" t="n">
-        <v>373.37824410182</v>
+        <v>373.3782441018199</v>
       </c>
       <c r="L3" t="n">
-        <v>502.05312693214</v>
+        <v>502.0531269321399</v>
       </c>
       <c r="M3" t="n">
-        <v>585.8723188136495</v>
+        <v>585.8723188136494</v>
       </c>
       <c r="N3" t="n">
-        <v>601.3786157751533</v>
+        <v>601.3786157751532</v>
       </c>
       <c r="O3" t="n">
-        <v>550.1439445851488</v>
+        <v>550.1439445851487</v>
       </c>
       <c r="P3" t="n">
-        <v>441.5390170764874</v>
+        <v>441.5390170764873</v>
       </c>
       <c r="Q3" t="n">
         <v>295.1571398087668</v>
@@ -31154,10 +31154,10 @@
         <v>143.5625505474472</v>
       </c>
       <c r="S3" t="n">
-        <v>42.94909590056785</v>
+        <v>42.94909590056783</v>
       </c>
       <c r="T3" t="n">
-        <v>9.320004517738338</v>
+        <v>9.320004517738337</v>
       </c>
       <c r="U3" t="n">
         <v>0.1521219453384931</v>
@@ -31197,25 +31197,25 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.938515718739704</v>
+        <v>1.938515718739703</v>
       </c>
       <c r="H4" t="n">
         <v>17.23516702661301</v>
       </c>
       <c r="I4" t="n">
-        <v>58.29645452355402</v>
+        <v>58.296454523554</v>
       </c>
       <c r="J4" t="n">
         <v>137.053061314897</v>
       </c>
       <c r="K4" t="n">
-        <v>225.2202807772128</v>
+        <v>225.2202807772127</v>
       </c>
       <c r="L4" t="n">
-        <v>288.2044187660829</v>
+        <v>288.2044187660828</v>
       </c>
       <c r="M4" t="n">
-        <v>303.8711503475337</v>
+        <v>303.8711503475336</v>
       </c>
       <c r="N4" t="n">
         <v>296.6457735776859</v>
@@ -31224,22 +31224,22 @@
         <v>274.000385408772</v>
       </c>
       <c r="P4" t="n">
-        <v>234.4546647464819</v>
+        <v>234.4546647464818</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.3242571391947</v>
+        <v>162.3242571391946</v>
       </c>
       <c r="R4" t="n">
-        <v>87.1627158626052</v>
+        <v>87.16271586260518</v>
       </c>
       <c r="S4" t="n">
-        <v>33.78304211658192</v>
+        <v>33.78304211658191</v>
       </c>
       <c r="T4" t="n">
-        <v>8.282748980069641</v>
+        <v>8.282748980069639</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1057372210221658</v>
+        <v>0.1057372210221657</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32084,10 +32084,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32324,10 +32324,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>370.9642309107746</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O30" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N33" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>370.9642309107746</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33761,10 +33761,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -33998,10 +33998,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>444.22749159829</v>
       </c>
       <c r="N42" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460043</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>303.4297552732313</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>185.7434973001359</v>
+        <v>185.7434973001358</v>
       </c>
       <c r="K2" t="n">
-        <v>329.6323819496571</v>
+        <v>329.632381949657</v>
       </c>
       <c r="L2" t="n">
-        <v>446.2126248248402</v>
+        <v>446.2126248248401</v>
       </c>
       <c r="M2" t="n">
-        <v>528.4868518375911</v>
+        <v>528.4868518375908</v>
       </c>
       <c r="N2" t="n">
-        <v>541.6987341201877</v>
+        <v>541.6987341201875</v>
       </c>
       <c r="O2" t="n">
-        <v>498.0407930060542</v>
+        <v>498.0407930060541</v>
       </c>
       <c r="P2" t="n">
-        <v>390.2167984325601</v>
+        <v>390.21679843256</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.3772246489012</v>
+        <v>244.3772246489011</v>
       </c>
       <c r="R2" t="n">
-        <v>55.88043090415965</v>
+        <v>55.8804309041596</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>91.61962830243195</v>
+        <v>91.61962830243189</v>
       </c>
       <c r="K3" t="n">
-        <v>235.536805127461</v>
+        <v>235.5368051274609</v>
       </c>
       <c r="L3" t="n">
-        <v>363.4987471522658</v>
+        <v>363.4987471522657</v>
       </c>
       <c r="M3" t="n">
-        <v>443.7382848916312</v>
+        <v>443.7382848916311</v>
       </c>
       <c r="N3" t="n">
-        <v>470.03690369182</v>
+        <v>470.0369036918199</v>
       </c>
       <c r="O3" t="n">
-        <v>407.5477001407044</v>
+        <v>407.5477001407043</v>
       </c>
       <c r="P3" t="n">
-        <v>307.5646096621572</v>
+        <v>307.5646096621571</v>
       </c>
       <c r="Q3" t="n">
         <v>155.1753657227453</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.05763987550093</v>
+        <v>10.0576398755009</v>
       </c>
       <c r="K4" t="n">
-        <v>96.20702260667741</v>
+        <v>96.20702260667736</v>
       </c>
       <c r="L4" t="n">
-        <v>153.3197424848446</v>
+        <v>153.3197424848445</v>
       </c>
       <c r="M4" t="n">
         <v>164.9453663999286</v>
@@ -34869,13 +34869,13 @@
         <v>168.9602291124527</v>
       </c>
       <c r="O4" t="n">
-        <v>135.5438469569293</v>
+        <v>135.5438469569292</v>
       </c>
       <c r="P4" t="n">
-        <v>96.72666069733427</v>
+        <v>96.72666069733421</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.81925550974881</v>
+        <v>10.81925550974879</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35732,10 +35732,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>274.2960242312443</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35972,10 +35972,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3679864663302</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O30" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>228.3679864663302</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37470,16 +37470,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
         <v>144.686904791938</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>302.0934576762717</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2960242312443</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243176</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>160.8335108287869</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
